--- a/data/trans_dic/P2A_fisi_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P2A_fisi_R-Estudios-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0669527968070108</v>
+        <v>0.06642400041370278</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1082714564719306</v>
+        <v>0.1102713607020151</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.06588769296212213</v>
+        <v>0.06634275839069838</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1829930030882408</v>
+        <v>0.1866080209502435</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.07994173945239053</v>
+        <v>0.0821514125903377</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1119153284065413</v>
+        <v>0.1117386211418243</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1083496705457311</v>
+        <v>0.1068801457627869</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2141632024924327</v>
+        <v>0.215560420531265</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.07805837055201088</v>
+        <v>0.07840161770649885</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1169259505762275</v>
+        <v>0.1156607141943183</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.09552164529013119</v>
+        <v>0.09433806387232907</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2087194966872846</v>
+        <v>0.2094840853606585</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1006705954369325</v>
+        <v>0.1008528580931213</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1540035393065393</v>
+        <v>0.1546011235570472</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1051338910702742</v>
+        <v>0.1060264728002796</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.242477308195971</v>
+        <v>0.2489832451330947</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1139006904181495</v>
+        <v>0.1133432651745399</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1499449949320516</v>
+        <v>0.1501210047085864</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1551475017834775</v>
+        <v>0.1534492837934958</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2610667069756082</v>
+        <v>0.26043121209452</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1015732302832724</v>
+        <v>0.1026777517500708</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1458366233734755</v>
+        <v>0.144505051410998</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1258146547992266</v>
+        <v>0.1254006926086333</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2456613399655369</v>
+        <v>0.2452561133956617</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.04694895839757641</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.08843884683261602</v>
+        <v>0.08843884683261601</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.03823876030381929</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02852783530876616</v>
+        <v>0.02935431599383114</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04308889361510159</v>
+        <v>0.04347179449798731</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04137730470318209</v>
+        <v>0.04120690099271936</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.08213736550444153</v>
+        <v>0.08276463918523254</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03014280971280126</v>
+        <v>0.03053217302248044</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.05953959096612631</v>
+        <v>0.05929553562898437</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03813058667856979</v>
+        <v>0.03806782848920042</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.07840753868090737</v>
+        <v>0.07793220935320919</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03233227241364334</v>
+        <v>0.03151131576148641</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.05416493388948188</v>
+        <v>0.05302739454031817</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.04174948743047973</v>
+        <v>0.04158411013037455</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.08329262945275646</v>
+        <v>0.0830499132707313</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04852014025213868</v>
+        <v>0.04756738119403744</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06522066995910741</v>
+        <v>0.06485533529616903</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06156528303270868</v>
+        <v>0.06181613560457484</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1085017071395514</v>
+        <v>0.1085151692536929</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.05051295052745441</v>
+        <v>0.0510476991260058</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.08573174807536556</v>
+        <v>0.08399764067072697</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05896467513299246</v>
+        <v>0.05755900017117514</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.09910598653100462</v>
+        <v>0.1000542427447786</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04558133713413796</v>
+        <v>0.04511960785239223</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.07049677573074042</v>
+        <v>0.07006987795908409</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.05545420604026206</v>
+        <v>0.05587454341716128</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1002415779041689</v>
+        <v>0.1006719555662385</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.03591707403492456</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.06951796840600553</v>
+        <v>0.06951796840600552</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.04835050243486196</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01541494555083586</v>
+        <v>0.01573062816036706</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02253363545403233</v>
+        <v>0.02338547698252645</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02136801735545174</v>
+        <v>0.02106626341303874</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05008781982418015</v>
+        <v>0.04827386193106882</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03025867792429024</v>
+        <v>0.03048152192543003</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03358312540902294</v>
+        <v>0.03148598212709058</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02445912609379733</v>
+        <v>0.02527569880252043</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.04157749256537526</v>
+        <v>0.04206087094487262</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02671717610774009</v>
+        <v>0.02570452988614131</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.03046349086487975</v>
+        <v>0.03191490046277429</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02671969263099779</v>
+        <v>0.02765596951747362</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.04918530420465637</v>
+        <v>0.05039256529932063</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04722738829648621</v>
+        <v>0.04727792595993878</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06256868436611414</v>
+        <v>0.06378561554608174</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05393496609363178</v>
+        <v>0.05482880025929411</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.09579426432371663</v>
+        <v>0.09345947565178912</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.07095465123130164</v>
+        <v>0.07074697726570971</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.07768064067433945</v>
+        <v>0.07593948476686124</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.05941166583881187</v>
+        <v>0.0616105269205668</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.07090243048032194</v>
+        <v>0.07043808533071892</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05292386750912659</v>
+        <v>0.05193965615537412</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.05922207889676646</v>
+        <v>0.06262609519591492</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.05091651349114525</v>
+        <v>0.05227090607039748</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.07618697649157706</v>
+        <v>0.07620972480398643</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.06238917372861646</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.1117979829233448</v>
+        <v>0.1117979829233449</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04285200873922652</v>
+        <v>0.04277616800071952</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06390755486284058</v>
+        <v>0.06432166853591768</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0486508149780735</v>
+        <v>0.04760765240650927</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.09837617025889324</v>
+        <v>0.09840668233158342</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.05464096204607682</v>
+        <v>0.05474596447383961</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.08204469018608793</v>
+        <v>0.08160219076949297</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.06064111908654533</v>
+        <v>0.06071393450467284</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1061035152674592</v>
+        <v>0.1058317103786018</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.05095976112769389</v>
+        <v>0.05138876134609212</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.07577028976758293</v>
+        <v>0.07550028799944875</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.05675565431120644</v>
+        <v>0.057045009385402</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1051224752907946</v>
+        <v>0.1053177393668284</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05749074562967509</v>
+        <v>0.05843018412780338</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.08228852343801298</v>
+        <v>0.08364275877590392</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.06454895515385708</v>
+        <v>0.06392997061775707</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1200130957390511</v>
+        <v>0.1196351133564743</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.07129388954889423</v>
+        <v>0.07143190253277287</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1025373892373634</v>
+        <v>0.1024357512438513</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.07886343491743375</v>
+        <v>0.07928257826822235</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1230278506670783</v>
+        <v>0.1249526061655038</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.06222152767841781</v>
+        <v>0.06224914621784765</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.08927926015577921</v>
+        <v>0.08931047262279164</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.06913118356333336</v>
+        <v>0.06831609304837283</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1188283607831166</v>
+        <v>0.1185365200355543</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>69077</v>
+        <v>68531</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>105526</v>
+        <v>107475</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>49702</v>
+        <v>50045</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>105867</v>
+        <v>107958</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>105132</v>
+        <v>108038</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>149720</v>
+        <v>149484</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>107771</v>
+        <v>106309</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>176050</v>
+        <v>177199</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>183190</v>
+        <v>183996</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>270384</v>
+        <v>267458</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>167068</v>
+        <v>164998</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>292326</v>
+        <v>293396</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>103864</v>
+        <v>104052</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>150098</v>
+        <v>150681</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>79307</v>
+        <v>79981</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>140280</v>
+        <v>144044</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>149792</v>
+        <v>149059</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>200596</v>
+        <v>200831</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>154319</v>
+        <v>152630</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>214607</v>
+        <v>214084</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>238376</v>
+        <v>240968</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>337238</v>
+        <v>334159</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>220051</v>
+        <v>219327</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>344065</v>
+        <v>343498</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>48309</v>
+        <v>49709</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>84625</v>
+        <v>85377</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>85915</v>
+        <v>85561</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>183213</v>
+        <v>184612</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>47857</v>
+        <v>48475</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>104659</v>
+        <v>104230</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>75815</v>
+        <v>75690</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>170254</v>
+        <v>169221</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>106085</v>
+        <v>103391</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>201589</v>
+        <v>197355</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>169699</v>
+        <v>169026</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>366651</v>
+        <v>365582</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>82165</v>
+        <v>80551</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>128091</v>
+        <v>127373</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>127833</v>
+        <v>128354</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>242020</v>
+        <v>242050</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>80198</v>
+        <v>81047</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>150700</v>
+        <v>147651</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>117239</v>
+        <v>114445</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>215198</v>
+        <v>217257</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>149556</v>
+        <v>148041</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>262372</v>
+        <v>260783</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>225404</v>
+        <v>227112</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>441259</v>
+        <v>443154</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>8500</v>
+        <v>8674</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>10843</v>
+        <v>11253</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>11686</v>
+        <v>11521</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>35642</v>
+        <v>34351</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>14416</v>
+        <v>14522</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>15402</v>
+        <v>14440</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>13431</v>
+        <v>13880</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>30554</v>
+        <v>30910</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>27460</v>
+        <v>26420</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>28630</v>
+        <v>29994</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>29286</v>
+        <v>30312</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>71145</v>
+        <v>72891</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>26042</v>
+        <v>26069</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>30107</v>
+        <v>30692</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>29496</v>
+        <v>29985</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>68166</v>
+        <v>66505</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>33804</v>
+        <v>33705</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>35627</v>
+        <v>34828</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>32625</v>
+        <v>33833</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>52105</v>
+        <v>51763</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>54396</v>
+        <v>53385</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>55658</v>
+        <v>58857</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>55806</v>
+        <v>57290</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>110202</v>
+        <v>110235</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>140406</v>
+        <v>140158</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>218550</v>
+        <v>219966</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>164324</v>
+        <v>160800</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>346351</v>
+        <v>346459</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>184643</v>
+        <v>184997</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>291606</v>
+        <v>290033</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>214190</v>
+        <v>214448</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>395586</v>
+        <v>394573</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>339175</v>
+        <v>342030</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>528423</v>
+        <v>526540</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>392166</v>
+        <v>394165</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>762032</v>
+        <v>763447</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>188371</v>
+        <v>191449</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>281409</v>
+        <v>286040</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>218022</v>
+        <v>215931</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>422528</v>
+        <v>421197</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>240916</v>
+        <v>241382</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>364441</v>
+        <v>364080</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>278554</v>
+        <v>280034</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>458686</v>
+        <v>465862</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>414130</v>
+        <v>414314</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>622635</v>
+        <v>622852</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>477677</v>
+        <v>472045</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>861386</v>
+        <v>859270</v>
       </c>
     </row>
     <row r="20">
